--- a/ipvu.xlsx
+++ b/ipvu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Google Drive\Uninorte\Uninorte-docencia\bookdown\intro_eco_col\int_eco_co_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32EF56C-1AAD-4F84-9741-B585CEEBD946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C2074-B12E-49D3-823F-A5AB6D55C81B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BD6C7F9-04C7-4809-962E-9F0FA065D463}"/>
   </bookViews>
